--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cck-Cckar.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cck-Cckar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>Cck</t>
+  </si>
+  <si>
+    <t>Cckar</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cck</t>
-  </si>
-  <si>
-    <t>Cckar</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -543,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.5527735</v>
+        <v>1.010939</v>
       </c>
       <c r="H2">
-        <v>3.105547</v>
+        <v>2.021878</v>
       </c>
       <c r="I2">
-        <v>0.298911854116411</v>
+        <v>0.187903070365303</v>
       </c>
       <c r="J2">
-        <v>0.2609953829182599</v>
+        <v>0.172684335851158</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -567,22 +564,22 @@
         <v>2.324425</v>
       </c>
       <c r="O2">
-        <v>0.763512170766838</v>
+        <v>0.7209055076228643</v>
       </c>
       <c r="P2">
-        <v>0.7846817218791649</v>
+        <v>0.7397491550452234</v>
       </c>
       <c r="Q2">
-        <v>1.203101847579167</v>
+        <v>0.7832839616916668</v>
       </c>
       <c r="R2">
-        <v>7.218611085475001</v>
+        <v>4.69970377015</v>
       </c>
       <c r="S2">
-        <v>0.2282228386043613</v>
+        <v>0.1354603583255936</v>
       </c>
       <c r="T2">
-        <v>0.2047983064708121</v>
+        <v>0.1277430915354397</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.5527735</v>
+        <v>1.010939</v>
       </c>
       <c r="H3">
-        <v>3.105547</v>
+        <v>2.021878</v>
       </c>
       <c r="I3">
-        <v>0.298911854116411</v>
+        <v>0.187903070365303</v>
       </c>
       <c r="J3">
-        <v>0.2609953829182599</v>
+        <v>0.172684335851158</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.08040633333333334</v>
+        <v>0.1868836666666667</v>
       </c>
       <c r="N3">
-        <v>0.241219</v>
+        <v>0.560651</v>
       </c>
       <c r="O3">
-        <v>0.07923406533667719</v>
+        <v>0.1738823122941228</v>
       </c>
       <c r="P3">
-        <v>0.08143095185689805</v>
+        <v>0.178427397539288</v>
       </c>
       <c r="Q3">
-        <v>0.1248528236321667</v>
+        <v>0.1889279870963333</v>
       </c>
       <c r="R3">
-        <v>0.749116941793</v>
+        <v>1.133567922578</v>
       </c>
       <c r="S3">
-        <v>0.02368400137896703</v>
+        <v>0.03267302036228415</v>
       </c>
       <c r="T3">
-        <v>0.02125310246128949</v>
+        <v>0.03081161664172248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.5527735</v>
+        <v>1.010939</v>
       </c>
       <c r="H4">
-        <v>3.105547</v>
+        <v>2.021878</v>
       </c>
       <c r="I4">
-        <v>0.298911854116411</v>
+        <v>0.187903070365303</v>
       </c>
       <c r="J4">
-        <v>0.2609953829182599</v>
+        <v>0.172684335851158</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,22 +688,22 @@
         <v>0.164266</v>
       </c>
       <c r="O4">
-        <v>0.08093555841327557</v>
+        <v>0.07641906973671601</v>
       </c>
       <c r="P4">
-        <v>0.05545308096677797</v>
+        <v>0.05227771801742739</v>
       </c>
       <c r="Q4">
-        <v>0.1275339458755</v>
+        <v>0.08303145288700001</v>
       </c>
       <c r="R4">
-        <v>0.510135783502</v>
+        <v>0.332125811548</v>
       </c>
       <c r="S4">
-        <v>0.02419259782925929</v>
+        <v>0.01435937783798915</v>
       </c>
       <c r="T4">
-        <v>0.01447299810092148</v>
+        <v>0.009027543015653562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.5527735</v>
+        <v>1.010939</v>
       </c>
       <c r="H5">
-        <v>3.105547</v>
+        <v>2.021878</v>
       </c>
       <c r="I5">
-        <v>0.298911854116411</v>
+        <v>0.187903070365303</v>
       </c>
       <c r="J5">
-        <v>0.2609953829182599</v>
+        <v>0.172684335851158</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07744733333333334</v>
+        <v>0.030946</v>
       </c>
       <c r="N5">
-        <v>0.232342</v>
+        <v>0.092838</v>
       </c>
       <c r="O5">
-        <v>0.07631820548320925</v>
+        <v>0.02879311034629703</v>
       </c>
       <c r="P5">
-        <v>0.07843424529715905</v>
+        <v>0.02954572939806122</v>
       </c>
       <c r="Q5">
-        <v>0.1202581668456667</v>
+        <v>0.031284518294</v>
       </c>
       <c r="R5">
-        <v>0.7215490010740001</v>
+        <v>0.187707109764</v>
       </c>
       <c r="S5">
-        <v>0.02281241630382332</v>
+        <v>0.005410313839436185</v>
       </c>
       <c r="T5">
-        <v>0.02047097588523675</v>
+        <v>0.005102084658342235</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -797,10 +794,10 @@
         <v>2.844906</v>
       </c>
       <c r="I6">
-        <v>0.1825499398864681</v>
+        <v>0.1762607411857269</v>
       </c>
       <c r="J6">
-        <v>0.2390906757606486</v>
+        <v>0.2429774215699337</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,10 +812,10 @@
         <v>2.324425</v>
       </c>
       <c r="O6">
-        <v>0.763512170766838</v>
+        <v>0.7209055076228643</v>
       </c>
       <c r="P6">
-        <v>0.7846817218791649</v>
+        <v>0.7397491550452234</v>
       </c>
       <c r="Q6">
         <v>0.7347522921166667</v>
@@ -827,10 +824,10 @@
         <v>6.612770629050001</v>
       </c>
       <c r="S6">
-        <v>0.1393791008760731</v>
+        <v>0.1270673390984788</v>
       </c>
       <c r="T6">
-        <v>0.1876100831411188</v>
+        <v>0.1797423423014255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +856,40 @@
         <v>2.844906</v>
       </c>
       <c r="I7">
-        <v>0.1825499398864681</v>
+        <v>0.1762607411857269</v>
       </c>
       <c r="J7">
-        <v>0.2390906757606486</v>
+        <v>0.2429774215699337</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.08040633333333334</v>
+        <v>0.1868836666666667</v>
       </c>
       <c r="N7">
-        <v>0.241219</v>
+        <v>0.560651</v>
       </c>
       <c r="O7">
-        <v>0.07923406533667719</v>
+        <v>0.1738823122941228</v>
       </c>
       <c r="P7">
-        <v>0.08143095185689805</v>
+        <v>0.178427397539288</v>
       </c>
       <c r="Q7">
-        <v>0.07624948671266668</v>
+        <v>0.1772221548673333</v>
       </c>
       <c r="R7">
-        <v>0.6862453804140001</v>
+        <v>1.594999393806</v>
       </c>
       <c r="S7">
-        <v>0.01446417386417091</v>
+        <v>0.03064862524405012</v>
       </c>
       <c r="T7">
-        <v>0.0194693813072986</v>
+        <v>0.04335382899152972</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -921,10 +918,10 @@
         <v>2.844906</v>
       </c>
       <c r="I8">
-        <v>0.1825499398864681</v>
+        <v>0.1762607411857269</v>
       </c>
       <c r="J8">
-        <v>0.2390906757606486</v>
+        <v>0.2429774215699337</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,10 +936,10 @@
         <v>0.164266</v>
       </c>
       <c r="O8">
-        <v>0.08093555841327557</v>
+        <v>0.07641906973671601</v>
       </c>
       <c r="P8">
-        <v>0.05545308096677797</v>
+        <v>0.05227771801742739</v>
       </c>
       <c r="Q8">
         <v>0.07788688816599999</v>
@@ -951,10 +948,10 @@
         <v>0.467321328996</v>
       </c>
       <c r="S8">
-        <v>0.01477478132302119</v>
+        <v>0.01346968187251732</v>
       </c>
       <c r="T8">
-        <v>0.01325831460135691</v>
+        <v>0.01270230512943457</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +980,10 @@
         <v>2.844906</v>
       </c>
       <c r="I9">
-        <v>0.1825499398864681</v>
+        <v>0.1762607411857269</v>
       </c>
       <c r="J9">
-        <v>0.2390906757606486</v>
+        <v>0.2429774215699337</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.07744733333333334</v>
+        <v>0.030946</v>
       </c>
       <c r="N9">
-        <v>0.232342</v>
+        <v>0.092838</v>
       </c>
       <c r="O9">
-        <v>0.07631820548320925</v>
+        <v>0.02879311034629703</v>
       </c>
       <c r="P9">
-        <v>0.07843424529715905</v>
+        <v>0.02954572939806122</v>
       </c>
       <c r="Q9">
-        <v>0.07344346109466666</v>
+        <v>0.029346153692</v>
       </c>
       <c r="R9">
-        <v>0.660991149852</v>
+        <v>0.264115383228</v>
       </c>
       <c r="S9">
-        <v>0.01393188382320297</v>
+        <v>0.005075094970680736</v>
       </c>
       <c r="T9">
-        <v>0.01875289671087423</v>
+        <v>0.007178945147543904</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.13263</v>
+        <v>3.420868</v>
       </c>
       <c r="H10">
-        <v>4.26526</v>
+        <v>6.841736</v>
       </c>
       <c r="I10">
-        <v>0.4105353339970584</v>
+        <v>0.6358361884489701</v>
       </c>
       <c r="J10">
-        <v>0.3584596101575462</v>
+        <v>0.5843382425789083</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1063,22 +1060,22 @@
         <v>2.324425</v>
       </c>
       <c r="O10">
-        <v>0.763512170766838</v>
+        <v>0.7209055076228643</v>
       </c>
       <c r="P10">
-        <v>0.7846817218791649</v>
+        <v>0.7397491550452234</v>
       </c>
       <c r="Q10">
-        <v>1.652379495916667</v>
+        <v>2.650517033633334</v>
       </c>
       <c r="R10">
-        <v>9.9142769755</v>
+        <v>15.9031022018</v>
       </c>
       <c r="S10">
-        <v>0.313448724036583</v>
+        <v>0.458377810198792</v>
       </c>
       <c r="T10">
-        <v>0.2812767041225575</v>
+        <v>0.4322637212083582</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1083,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.13263</v>
+        <v>3.420868</v>
       </c>
       <c r="H11">
-        <v>4.26526</v>
+        <v>6.841736</v>
       </c>
       <c r="I11">
-        <v>0.4105353339970584</v>
+        <v>0.6358361884489701</v>
       </c>
       <c r="J11">
-        <v>0.3584596101575462</v>
+        <v>0.5843382425789083</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.08040633333333334</v>
+        <v>0.1868836666666667</v>
       </c>
       <c r="N11">
-        <v>0.241219</v>
+        <v>0.560651</v>
       </c>
       <c r="O11">
-        <v>0.07923406533667719</v>
+        <v>0.1738823122941228</v>
       </c>
       <c r="P11">
-        <v>0.08143095185689805</v>
+        <v>0.178427397539288</v>
       </c>
       <c r="Q11">
-        <v>0.1714769586566667</v>
+        <v>0.6393043550226667</v>
       </c>
       <c r="R11">
-        <v>1.02886175194</v>
+        <v>3.835826130136</v>
       </c>
       <c r="S11">
-        <v>0.03252838347693753</v>
+        <v>0.1105606666877885</v>
       </c>
       <c r="T11">
-        <v>0.02918970725738159</v>
+        <v>0.1042619519060358</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1163,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.13263</v>
+        <v>3.420868</v>
       </c>
       <c r="H12">
-        <v>4.26526</v>
+        <v>6.841736</v>
       </c>
       <c r="I12">
-        <v>0.4105353339970584</v>
+        <v>0.6358361884489701</v>
       </c>
       <c r="J12">
-        <v>0.3584596101575462</v>
+        <v>0.5843382425789083</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1184,22 @@
         <v>0.164266</v>
       </c>
       <c r="O12">
-        <v>0.08093555841327557</v>
+        <v>0.07641906973671601</v>
       </c>
       <c r="P12">
-        <v>0.05545308096677797</v>
+        <v>0.05227771801742739</v>
       </c>
       <c r="Q12">
-        <v>0.17515929979</v>
+        <v>0.280966151444</v>
       </c>
       <c r="R12">
-        <v>0.7006371991599999</v>
+        <v>1.123864605776</v>
       </c>
       <c r="S12">
-        <v>0.03322690650543252</v>
+        <v>0.04859001002620954</v>
       </c>
       <c r="T12">
-        <v>0.01987768978538608</v>
+        <v>0.03054786987233925</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.13263</v>
+        <v>3.420868</v>
       </c>
       <c r="H13">
-        <v>4.26526</v>
+        <v>6.841736</v>
       </c>
       <c r="I13">
-        <v>0.4105353339970584</v>
+        <v>0.6358361884489701</v>
       </c>
       <c r="J13">
-        <v>0.3584596101575462</v>
+        <v>0.5843382425789083</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,524 +1240,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.07744733333333334</v>
+        <v>0.030946</v>
       </c>
       <c r="N13">
-        <v>0.232342</v>
+        <v>0.092838</v>
       </c>
       <c r="O13">
-        <v>0.07631820548320925</v>
+        <v>0.02879311034629703</v>
       </c>
       <c r="P13">
-        <v>0.07843424529715905</v>
+        <v>0.02954572939806122</v>
       </c>
       <c r="Q13">
-        <v>0.1651665064866667</v>
+        <v>0.105862181128</v>
       </c>
       <c r="R13">
-        <v>0.99099903892</v>
+        <v>0.635173086768</v>
       </c>
       <c r="S13">
-        <v>0.03133131997810545</v>
+        <v>0.01830770153618011</v>
       </c>
       <c r="T13">
-        <v>0.02811550899222098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.3790996666666667</v>
-      </c>
-      <c r="H14">
-        <v>1.137299</v>
-      </c>
-      <c r="I14">
-        <v>0.07297740736704142</v>
-      </c>
-      <c r="J14">
-        <v>0.09558051705466189</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.7748083333333334</v>
-      </c>
-      <c r="N14">
-        <v>2.324425</v>
-      </c>
-      <c r="O14">
-        <v>0.763512170766838</v>
-      </c>
-      <c r="P14">
-        <v>0.7846817218791649</v>
-      </c>
-      <c r="Q14">
-        <v>0.2937295808972223</v>
-      </c>
-      <c r="R14">
-        <v>2.643566228075001</v>
-      </c>
-      <c r="S14">
-        <v>0.05571913871574563</v>
-      </c>
-      <c r="T14">
-        <v>0.07500028470055298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.3790996666666667</v>
-      </c>
-      <c r="H15">
-        <v>1.137299</v>
-      </c>
-      <c r="I15">
-        <v>0.07297740736704142</v>
-      </c>
-      <c r="J15">
-        <v>0.09558051705466189</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.08040633333333334</v>
-      </c>
-      <c r="N15">
-        <v>0.241219</v>
-      </c>
-      <c r="O15">
-        <v>0.07923406533667719</v>
-      </c>
-      <c r="P15">
-        <v>0.08143095185689805</v>
-      </c>
-      <c r="Q15">
-        <v>0.03048201416455556</v>
-      </c>
-      <c r="R15">
-        <v>0.2743381274810001</v>
-      </c>
-      <c r="S15">
-        <v>0.005782296663421467</v>
-      </c>
-      <c r="T15">
-        <v>0.007783212482735596</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.3790996666666667</v>
-      </c>
-      <c r="H16">
-        <v>1.137299</v>
-      </c>
-      <c r="I16">
-        <v>0.07297740736704142</v>
-      </c>
-      <c r="J16">
-        <v>0.09558051705466189</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.5</v>
-      </c>
-      <c r="M16">
-        <v>0.082133</v>
-      </c>
-      <c r="N16">
-        <v>0.164266</v>
-      </c>
-      <c r="O16">
-        <v>0.08093555841327557</v>
-      </c>
-      <c r="P16">
-        <v>0.05545308096677797</v>
-      </c>
-      <c r="Q16">
-        <v>0.03113659292233333</v>
-      </c>
-      <c r="R16">
-        <v>0.186819557534</v>
-      </c>
-      <c r="S16">
-        <v>0.005906467216804588</v>
-      </c>
-      <c r="T16">
-        <v>0.005300234151078669</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.3790996666666667</v>
-      </c>
-      <c r="H17">
-        <v>1.137299</v>
-      </c>
-      <c r="I17">
-        <v>0.07297740736704142</v>
-      </c>
-      <c r="J17">
-        <v>0.09558051705466189</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.07744733333333334</v>
-      </c>
-      <c r="N17">
-        <v>0.232342</v>
-      </c>
-      <c r="O17">
-        <v>0.07631820548320925</v>
-      </c>
-      <c r="P17">
-        <v>0.07843424529715905</v>
-      </c>
-      <c r="Q17">
-        <v>0.02936025825088889</v>
-      </c>
-      <c r="R17">
-        <v>0.264242324258</v>
-      </c>
-      <c r="S17">
-        <v>0.005569504771069735</v>
-      </c>
-      <c r="T17">
-        <v>0.007496785720294645</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.1819486666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.5458460000000001</v>
-      </c>
-      <c r="I18">
-        <v>0.03502546463302095</v>
-      </c>
-      <c r="J18">
-        <v>0.04587381410888339</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.7748083333333334</v>
-      </c>
-      <c r="N18">
-        <v>2.324425</v>
-      </c>
-      <c r="O18">
-        <v>0.763512170766838</v>
-      </c>
-      <c r="P18">
-        <v>0.7846817218791649</v>
-      </c>
-      <c r="Q18">
-        <v>0.1409753431722222</v>
-      </c>
-      <c r="R18">
-        <v>1.26877808855</v>
-      </c>
-      <c r="S18">
-        <v>0.02674236853407493</v>
-      </c>
-      <c r="T18">
-        <v>0.03599634344412335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.1819486666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.5458460000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.03502546463302095</v>
-      </c>
-      <c r="J19">
-        <v>0.04587381410888339</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.08040633333333334</v>
-      </c>
-      <c r="N19">
-        <v>0.241219</v>
-      </c>
-      <c r="O19">
-        <v>0.07923406533667719</v>
-      </c>
-      <c r="P19">
-        <v>0.08143095185689805</v>
-      </c>
-      <c r="Q19">
-        <v>0.01462982514155556</v>
-      </c>
-      <c r="R19">
-        <v>0.131668426274</v>
-      </c>
-      <c r="S19">
-        <v>0.002775209953180258</v>
-      </c>
-      <c r="T19">
-        <v>0.003735548348192775</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.1819486666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.5458460000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.03502546463302095</v>
-      </c>
-      <c r="J20">
-        <v>0.04587381410888339</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.5</v>
-      </c>
-      <c r="M20">
-        <v>0.082133</v>
-      </c>
-      <c r="N20">
-        <v>0.164266</v>
-      </c>
-      <c r="O20">
-        <v>0.08093555841327557</v>
-      </c>
-      <c r="P20">
-        <v>0.05545308096677797</v>
-      </c>
-      <c r="Q20">
-        <v>0.01494398983933333</v>
-      </c>
-      <c r="R20">
-        <v>0.08966393903600001</v>
-      </c>
-      <c r="S20">
-        <v>0.002834805538757985</v>
-      </c>
-      <c r="T20">
-        <v>0.002543844328034832</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.1819486666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.5458460000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.03502546463302095</v>
-      </c>
-      <c r="J21">
-        <v>0.04587381410888339</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.07744733333333334</v>
-      </c>
-      <c r="N21">
-        <v>0.232342</v>
-      </c>
-      <c r="O21">
-        <v>0.07631820548320925</v>
-      </c>
-      <c r="P21">
-        <v>0.07843424529715905</v>
-      </c>
-      <c r="Q21">
-        <v>0.01409143903688889</v>
-      </c>
-      <c r="R21">
-        <v>0.126822951332</v>
-      </c>
-      <c r="S21">
-        <v>0.002673080607007771</v>
-      </c>
-      <c r="T21">
-        <v>0.003598077988532436</v>
+        <v>0.01726469959217508</v>
       </c>
     </row>
   </sheetData>
